--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1602,28 +1602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.0538684116115</v>
+        <v>168.5019987389734</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.4184167999685</v>
+        <v>230.5518684580933</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.9132205299958</v>
+        <v>208.548321714099</v>
       </c>
       <c r="AD2" t="n">
-        <v>134053.8684116115</v>
+        <v>168501.9987389734</v>
       </c>
       <c r="AE2" t="n">
-        <v>183418.4167999685</v>
+        <v>230551.8684580933</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.367196221801468e-06</v>
+        <v>6.296031382881578e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.959635416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>165913.2205299958</v>
+        <v>208548.321714099</v>
       </c>
     </row>
     <row r="3">
@@ -1708,28 +1708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.19541332439908</v>
+        <v>121.924924510257</v>
       </c>
       <c r="AB3" t="n">
-        <v>131.6188083525086</v>
+        <v>166.8230606629035</v>
       </c>
       <c r="AC3" t="n">
-        <v>119.0572940115379</v>
+        <v>150.9017018909183</v>
       </c>
       <c r="AD3" t="n">
-        <v>96195.41332439908</v>
+        <v>121924.924510257</v>
       </c>
       <c r="AE3" t="n">
-        <v>131618.8083525086</v>
+        <v>166823.0606629035</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.573765474058877e-06</v>
+        <v>8.035499337151565e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.452473958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>119057.2940115379</v>
+        <v>150901.7018909183</v>
       </c>
     </row>
   </sheetData>
@@ -2005,28 +2005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.69707633654801</v>
+        <v>121.9493470015568</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.3052058175405</v>
+        <v>166.856476592944</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.6781826658723</v>
+        <v>150.9319286514954</v>
       </c>
       <c r="AD2" t="n">
-        <v>96697.07633654801</v>
+        <v>121949.3470015568</v>
       </c>
       <c r="AE2" t="n">
-        <v>132305.2058175405</v>
+        <v>166856.476592944</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.419818695241026e-06</v>
+        <v>7.934410681928835e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.80078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>119678.1826658723</v>
+        <v>150931.9286514954</v>
       </c>
     </row>
     <row r="3">
@@ -2111,28 +2111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.5755267717816</v>
+        <v>118.8277974367904</v>
       </c>
       <c r="AB3" t="n">
-        <v>128.0341639899817</v>
+        <v>162.5854347653853</v>
       </c>
       <c r="AC3" t="n">
-        <v>115.8147630758895</v>
+        <v>147.0685090615127</v>
       </c>
       <c r="AD3" t="n">
-        <v>93575.5267717816</v>
+        <v>118827.7974367904</v>
       </c>
       <c r="AE3" t="n">
-        <v>128034.1639899817</v>
+        <v>162585.4347653853</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.605263537791242e-06</v>
+        <v>8.205894955181559e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.608723958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>115814.7630758895</v>
+        <v>147068.5090615127</v>
       </c>
     </row>
   </sheetData>
@@ -2408,28 +2408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.7487209998662</v>
+        <v>132.7325350822536</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.2170889087227</v>
+        <v>181.6105102456295</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.9304053357231</v>
+        <v>164.2778580397895</v>
       </c>
       <c r="AD2" t="n">
-        <v>101748.7209998662</v>
+        <v>132732.5350822536</v>
       </c>
       <c r="AE2" t="n">
-        <v>139217.0889087227</v>
+        <v>181610.5102456295</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.106091439191729e-06</v>
+        <v>7.899753716180587e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.871744791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>125930.4053357231</v>
+        <v>164277.8580397895</v>
       </c>
     </row>
   </sheetData>
@@ -2705,28 +2705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.7726907387902</v>
+        <v>123.7518359280031</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.5133971292173</v>
+        <v>169.3227214623059</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.4847501049976</v>
+        <v>153.1627985719225</v>
       </c>
       <c r="AD2" t="n">
-        <v>99772.6907387902</v>
+        <v>123751.8359280031</v>
       </c>
       <c r="AE2" t="n">
-        <v>136513.3971292173</v>
+        <v>169322.7214623058</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.443565085451601e-06</v>
+        <v>8.22682708045047e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.165364583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>123484.7501049976</v>
+        <v>153162.7985719225</v>
       </c>
     </row>
   </sheetData>
@@ -3002,28 +3002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.6373381858493</v>
+        <v>144.8725847344136</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.851863548236</v>
+        <v>198.2210617608977</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.8821418342085</v>
+        <v>179.3031218315012</v>
       </c>
       <c r="AD2" t="n">
-        <v>114637.3381858493</v>
+        <v>144872.5847344135</v>
       </c>
       <c r="AE2" t="n">
-        <v>156851.863548236</v>
+        <v>198221.0617608977</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.6378807729442e-06</v>
+        <v>7.330114862278844e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.858072916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>141882.1418342085</v>
+        <v>179303.1218315013</v>
       </c>
     </row>
   </sheetData>
@@ -3299,28 +3299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.5226708611352</v>
+        <v>135.8599674724352</v>
       </c>
       <c r="AB2" t="n">
-        <v>151.221994188254</v>
+        <v>185.8896012144533</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.7895793043701</v>
+        <v>168.148558572292</v>
       </c>
       <c r="AD2" t="n">
-        <v>110522.6708611351</v>
+        <v>135859.9674724352</v>
       </c>
       <c r="AE2" t="n">
-        <v>151221.994188254</v>
+        <v>185889.6012144533</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.180462135254895e-06</v>
+        <v>7.552524717197668e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>136789.5793043701</v>
+        <v>168148.558572292</v>
       </c>
     </row>
     <row r="3">
@@ -3405,28 +3405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.87072895697615</v>
+        <v>119.2932769142968</v>
       </c>
       <c r="AB3" t="n">
-        <v>128.438072643166</v>
+        <v>163.2223243220145</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.1801232541033</v>
+        <v>147.6446147727375</v>
       </c>
       <c r="AD3" t="n">
-        <v>93870.72895697615</v>
+        <v>119293.2769142968</v>
       </c>
       <c r="AE3" t="n">
-        <v>128438.072643166</v>
+        <v>163222.3243220145</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.620861719237523e-06</v>
+        <v>8.194577232326939e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.543619791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>116180.1232541033</v>
+        <v>147644.6147727375</v>
       </c>
     </row>
   </sheetData>
@@ -3702,28 +3702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.797294033681</v>
+        <v>164.8887630843278</v>
       </c>
       <c r="AB2" t="n">
-        <v>174.8578957155072</v>
+        <v>225.6080800307028</v>
       </c>
       <c r="AC2" t="n">
-        <v>158.169703563066</v>
+        <v>204.0763615155664</v>
       </c>
       <c r="AD2" t="n">
-        <v>127797.294033681</v>
+        <v>164888.7630843278</v>
       </c>
       <c r="AE2" t="n">
-        <v>174857.8957155072</v>
+        <v>225608.0800307028</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.266925188629888e-06</v>
+        <v>6.836616443003969e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.740234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>158169.7035630659</v>
+        <v>204076.3615155664</v>
       </c>
     </row>
   </sheetData>
@@ -3999,28 +3999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.99411506920244</v>
+        <v>116.6937535351208</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.8704067315536</v>
+        <v>159.6655417517502</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.8575117733527</v>
+        <v>144.4272865390023</v>
       </c>
       <c r="AD2" t="n">
-        <v>91994.11506920244</v>
+        <v>116693.7535351208</v>
       </c>
       <c r="AE2" t="n">
-        <v>125870.4067315536</v>
+        <v>159665.5417517502</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.573842831423868e-06</v>
+        <v>8.276282610108608e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.810546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>113857.5117733527</v>
+        <v>144427.2865390023</v>
       </c>
     </row>
     <row r="3">
@@ -4105,28 +4105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.27301946444815</v>
+        <v>116.9726579303665</v>
       </c>
       <c r="AB3" t="n">
-        <v>126.2520160295221</v>
+        <v>160.0471510497187</v>
       </c>
       <c r="AC3" t="n">
-        <v>114.2027008155152</v>
+        <v>144.7724755811649</v>
       </c>
       <c r="AD3" t="n">
-        <v>92273.01946444815</v>
+        <v>116972.6579303665</v>
       </c>
       <c r="AE3" t="n">
-        <v>126252.0160295221</v>
+        <v>160047.1510497186</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.572449644377754e-06</v>
+        <v>8.274213945800855e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.813802083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>114202.7008155152</v>
+        <v>144772.4755811649</v>
       </c>
     </row>
   </sheetData>
@@ -4402,28 +4402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.98134724159647</v>
+        <v>119.0568656065362</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.5894254603177</v>
+        <v>162.8988559410059</v>
       </c>
       <c r="AC2" t="n">
-        <v>116.3170311708111</v>
+        <v>147.3520177600215</v>
       </c>
       <c r="AD2" t="n">
-        <v>93981.34724159646</v>
+        <v>119056.8656065362</v>
       </c>
       <c r="AE2" t="n">
-        <v>128589.4254603177</v>
+        <v>162898.8559410059</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.53633301790392e-06</v>
+        <v>8.140859248202647e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.732421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>116317.0311708112</v>
+        <v>147352.0177600215</v>
       </c>
     </row>
     <row r="3">
@@ -4508,28 +4508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.82882813741793</v>
+        <v>117.9043465023577</v>
       </c>
       <c r="AB3" t="n">
-        <v>127.0124979764271</v>
+        <v>161.3219284571152</v>
       </c>
       <c r="AC3" t="n">
-        <v>114.8906034327509</v>
+        <v>145.9255900219612</v>
       </c>
       <c r="AD3" t="n">
-        <v>92828.82813741794</v>
+        <v>117904.3465023577</v>
       </c>
       <c r="AE3" t="n">
-        <v>127012.4979764271</v>
+        <v>161321.9284571152</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.615018154577253e-06</v>
+        <v>8.256561215644214e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.651041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>114890.6034327509</v>
+        <v>145925.5900219612</v>
       </c>
     </row>
   </sheetData>
@@ -4805,28 +4805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.7293670725659</v>
+        <v>150.5606935521247</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.6602226999264</v>
+        <v>206.0037831869365</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.3726505686198</v>
+        <v>186.3430712477596</v>
       </c>
       <c r="AD2" t="n">
-        <v>124729.3670725658</v>
+        <v>150560.6935521247</v>
       </c>
       <c r="AE2" t="n">
-        <v>170660.2226999264</v>
+        <v>206003.7831869365</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.649717482674659e-06</v>
+        <v>6.72708341769535e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.588541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>154372.6505686198</v>
+        <v>186343.0712477596</v>
       </c>
     </row>
     <row r="3">
@@ -4911,28 +4911,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.35647120918294</v>
+        <v>119.9318646335779</v>
       </c>
       <c r="AB3" t="n">
-        <v>129.1026866220707</v>
+        <v>164.0960682120363</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.7813074076532</v>
+        <v>148.4349697722032</v>
       </c>
       <c r="AD3" t="n">
-        <v>94356.47120918294</v>
+        <v>119931.8646335779</v>
       </c>
       <c r="AE3" t="n">
-        <v>129102.6866220707</v>
+        <v>164096.0682120363</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.644485603790944e-06</v>
+        <v>8.166286585833631e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.426432291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>116781.3074076532</v>
+        <v>148434.9697722032</v>
       </c>
     </row>
   </sheetData>
@@ -5208,28 +5208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.70714595023188</v>
+        <v>123.9093223038078</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.4237158578798</v>
+        <v>169.5382012694902</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.4036278883281</v>
+        <v>153.3577132887371</v>
       </c>
       <c r="AD2" t="n">
-        <v>99707.14595023188</v>
+        <v>123909.3223038078</v>
       </c>
       <c r="AE2" t="n">
-        <v>136423.7158578798</v>
+        <v>169538.2012694902</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.508000103508354e-06</v>
+        <v>8.271279009540646e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>123403.6278883281</v>
+        <v>153357.7132887371</v>
       </c>
     </row>
   </sheetData>
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.5868338893679</v>
+        <v>124.2467507201805</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.627343705298</v>
+        <v>169.9998857150624</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.4923831832914</v>
+        <v>153.7753352188022</v>
       </c>
       <c r="AD2" t="n">
-        <v>100586.8338893679</v>
+        <v>124246.7507201805</v>
       </c>
       <c r="AE2" t="n">
-        <v>137627.3437052981</v>
+        <v>169999.8857150624</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.253462863678321e-06</v>
+        <v>8.057481587537511e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.572265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>124492.3831832914</v>
+        <v>153775.3352188022</v>
       </c>
     </row>
   </sheetData>
@@ -8815,28 +8815,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.7800071448845</v>
+        <v>142.2824553046575</v>
       </c>
       <c r="AB2" t="n">
-        <v>152.942337161441</v>
+        <v>194.6771324066615</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.3457351587132</v>
+        <v>176.0974201208962</v>
       </c>
       <c r="AD2" t="n">
-        <v>111780.0071448845</v>
+        <v>142282.4553046575</v>
       </c>
       <c r="AE2" t="n">
-        <v>152942.337161441</v>
+        <v>194677.1324066615</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.892050203463018e-06</v>
+        <v>7.64373194543241e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.301432291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>138345.7351587132</v>
+        <v>176097.4201208962</v>
       </c>
     </row>
   </sheetData>
@@ -9112,28 +9112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>152.9975738483872</v>
+        <v>189.3711032981896</v>
       </c>
       <c r="AB2" t="n">
-        <v>209.3380303158524</v>
+        <v>259.1058979959133</v>
       </c>
       <c r="AC2" t="n">
-        <v>189.359102510338</v>
+        <v>234.3771947486707</v>
       </c>
       <c r="AD2" t="n">
-        <v>152997.5738483872</v>
+        <v>189371.1032981896</v>
       </c>
       <c r="AE2" t="n">
-        <v>209338.0303158524</v>
+        <v>259105.8979959133</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.730219265813381e-06</v>
+        <v>6.07904930870955e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.27669270833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>189359.102510338</v>
+        <v>234377.1947486707</v>
       </c>
     </row>
   </sheetData>
@@ -9409,28 +9409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.79386570779836</v>
+        <v>117.6854526254616</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.964660837788</v>
+        <v>161.0224281978298</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.8473318034837</v>
+        <v>145.6546736470707</v>
       </c>
       <c r="AD2" t="n">
-        <v>92793.86570779837</v>
+        <v>117685.4526254616</v>
       </c>
       <c r="AE2" t="n">
-        <v>126964.660837788</v>
+        <v>161022.4281978298</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.568065631743526e-06</v>
+        <v>8.22615328402906e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.758463541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>114847.3318034837</v>
+        <v>145654.6736470707</v>
       </c>
     </row>
     <row r="3">
@@ -9515,28 +9515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.65319897001208</v>
+        <v>117.5447858876753</v>
       </c>
       <c r="AB3" t="n">
-        <v>126.7721944013705</v>
+        <v>160.8299617614122</v>
       </c>
       <c r="AC3" t="n">
-        <v>114.6732340936294</v>
+        <v>145.4805759372164</v>
       </c>
       <c r="AD3" t="n">
-        <v>92653.19897001209</v>
+        <v>117544.7858876753</v>
       </c>
       <c r="AE3" t="n">
-        <v>126772.1944013705</v>
+        <v>160829.9617614122</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.590813733348223e-06</v>
+        <v>8.259760892684763e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.732421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>114673.2340936294</v>
+        <v>145480.5759372164</v>
       </c>
     </row>
   </sheetData>
@@ -9812,28 +9812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.405373455759</v>
+        <v>141.9070706318581</v>
       </c>
       <c r="AB2" t="n">
-        <v>159.2709674047364</v>
+        <v>194.1635145365345</v>
       </c>
       <c r="AC2" t="n">
-        <v>144.0703698138788</v>
+        <v>175.6328212194267</v>
       </c>
       <c r="AD2" t="n">
-        <v>116405.373455759</v>
+        <v>141907.070631858</v>
       </c>
       <c r="AE2" t="n">
-        <v>159270.9674047364</v>
+        <v>194163.5145365345</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.945748798247652e-06</v>
+        <v>7.182063163898686e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.246744791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>144070.3698138788</v>
+        <v>175632.8212194268</v>
       </c>
     </row>
     <row r="3">
@@ -9918,28 +9918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.57945905267354</v>
+        <v>120.1664075747931</v>
       </c>
       <c r="AB3" t="n">
-        <v>129.4077884270638</v>
+        <v>164.4169802115111</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.0572907245909</v>
+        <v>148.725254380851</v>
       </c>
       <c r="AD3" t="n">
-        <v>94579.45905267354</v>
+        <v>120166.4075747931</v>
       </c>
       <c r="AE3" t="n">
-        <v>129407.7884270638</v>
+        <v>164416.9802115111</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.607453130151809e-06</v>
+        <v>8.142969692197268e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.5078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>117057.2907245909</v>
+        <v>148725.254380851</v>
       </c>
     </row>
   </sheetData>
@@ -10215,28 +10215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>196.939076291067</v>
+        <v>246.748724082894</v>
       </c>
       <c r="AB2" t="n">
-        <v>269.4607325201676</v>
+        <v>337.6124900754838</v>
       </c>
       <c r="AC2" t="n">
-        <v>243.7437783990351</v>
+        <v>305.391227864886</v>
       </c>
       <c r="AD2" t="n">
-        <v>196939.0762910669</v>
+        <v>246748.724082894</v>
       </c>
       <c r="AE2" t="n">
-        <v>269460.7325201676</v>
+        <v>337612.4900754839</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.929849175660637e-06</v>
+        <v>4.883884018219782e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.54817708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>243743.778399035</v>
+        <v>305391.2278648861</v>
       </c>
     </row>
   </sheetData>
@@ -10512,28 +10512,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.0074131380506</v>
+        <v>123.7497847194773</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.8345546711066</v>
+        <v>169.3199149083079</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.7752568218365</v>
+        <v>153.1602598714991</v>
       </c>
       <c r="AD2" t="n">
-        <v>100007.4131380506</v>
+        <v>123749.7847194773</v>
       </c>
       <c r="AE2" t="n">
-        <v>136834.5546711066</v>
+        <v>169319.9149083079</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.362815870577438e-06</v>
+        <v>8.16170498450679e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.344401041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>123775.2568218365</v>
+        <v>153160.2598714991</v>
       </c>
     </row>
   </sheetData>
@@ -10809,28 +10809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.75529524206556</v>
+        <v>116.2539587011588</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.5436429080779</v>
+        <v>159.0637950575449</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.5619338305735</v>
+        <v>143.882969704735</v>
       </c>
       <c r="AD2" t="n">
-        <v>91755.29524206556</v>
+        <v>116253.9587011588</v>
       </c>
       <c r="AE2" t="n">
-        <v>125543.6429080779</v>
+        <v>159063.7950575449</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.54208589555925e-06</v>
+        <v>8.273839300665309e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.911458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>113561.9338305735</v>
+        <v>143882.969704735</v>
       </c>
     </row>
   </sheetData>
